--- a/project/Smart_home/libraries/touchgfx_lib/TouchGFX/assets/texts/texts.xlsx
+++ b/project/Smart_home/libraries/touchgfx_lib/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1413,9 +1413,7 @@
         <v>17</v>
       </c>
       <c r="G4"/>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
+      <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="L4" s="4" t="s">
@@ -1599,40 +1597,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-    </row>
+    <row r="4"/>
+    <row r="5"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
